--- a/biology/Botanique/Silene_rupestris/Silene_rupestris.xlsx
+++ b/biology/Botanique/Silene_rupestris/Silene_rupestris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silène des rochers
 Le Silène des rochers (Silene rupestris) est une plante herbacée appartenant à la famille des Caryophyllacées et au genre Silene.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Silène des rochers ne ressemble pas aux autres silènes avec ses petites fleurs blanches aux pétales échancrés. Sa tige est grêle avec des feuilles opposées. Confusion possible avec la Gypsophile rampante.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fleurit de mai à septembre dans les éboulis d'altitude de 1 500 à 3 000 mètres.
 </t>
